--- a/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
+++ b/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Olivier\CAD\COREXY_Design\HevORT\Components\PrintHeads\integrated\CarriageMGN9Assy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\STDHT_MGN9_NOVA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801BF0D-A582-4D75-B95D-49CBDB2FD39C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D9D1F-0E62-4245-899A-9B609A9DC5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>LDO NEMA 14 Round</t>
-  </si>
-  <si>
-    <t>Bearing_MR95_7804K105</t>
   </si>
   <si>
     <t>Bearing 5X9X2.5</t>
@@ -248,10 +245,6 @@
   <si>
     <t>Is included with certain BMG clones.
 If not, need to purchase separately</t>
-  </si>
-  <si>
-    <t>These are BIGGER bearings than the ones used in the BMG.
- To be used with Back Plate and cover marked with "BB"</t>
   </si>
   <si>
     <t xml:space="preserve">Make from 4mm OD PTFE tube:
@@ -445,6 +438,73 @@
   <si>
     <t>Thingiverse
 Alternate: GitHub</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>OPTION A: Bearing_MR95_7804K105</t>
+  </si>
+  <si>
+    <t>OPTION B: Bearing_MR85 (from BMG)</t>
+  </si>
+  <si>
+    <t>Bearing 5X8X2.5</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+These are BIGGER bearings than the ones used in the BMG.
+ To be used with Back Plate and cover marked with "BB"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use MR85 5x8x2.5 bearings from BMG</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -583,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -686,11 +746,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,171 +822,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1072,6 +988,158 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1188,6 +1256,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -1213,13 +1289,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1257,13 +1333,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1433,13 +1509,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1196975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1521,13 +1597,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1565,13 +1641,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1609,13 +1685,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1653,13 +1729,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1697,13 +1773,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1785,13 +1861,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1829,13 +1905,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1873,13 +1949,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1961,13 +2037,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2005,13 +2081,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2049,13 +2125,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2093,13 +2169,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2137,13 +2213,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2181,13 +2257,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2225,13 +2301,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2269,13 +2345,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2313,13 +2389,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2357,13 +2433,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2401,13 +2477,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2445,13 +2521,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2489,13 +2565,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2533,13 +2609,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2577,13 +2653,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2617,28 +2693,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>215144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1203325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="thumbnail_7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE382371-EB0C-43A6-B0AB-1C74BFCCE3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3082925" y="9282944"/>
+          <a:ext cx="993775" cy="988181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F7B2B53-07F9-4D14-9F5A-630DD3039DBD}" name="Table2" displayName="Table2" ref="A1:K33" totalsRowShown="0" dataDxfId="4" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:K33" xr:uid="{77F77AEE-4925-41E1-B76C-BE245B2EDCAF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
-    <sortCondition ref="C2:C33"/>
-    <sortCondition ref="B2:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F7B2B53-07F9-4D14-9F5A-630DD3039DBD}" name="Table2" displayName="Table2" ref="A1:K34" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:K34" xr:uid="{77F77AEE-4925-41E1-B76C-BE245B2EDCAF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K34">
+    <sortCondition ref="C2:C34"/>
+    <sortCondition ref="B2:B34"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DD622D90-C72A-4909-B7FD-5968D435C8BF}" name="SubAssy" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C2050934-8985-41CF-95D2-2D6243A39AA3}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8BA061E5-6BC2-4F7E-BC6A-6F78DE33BE54}" name="Item" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{93317657-BCCE-43E1-915A-B28AAD0D7603}" name="Thumbnail" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4948C01E-4B1D-41F6-8871-073490888FAD}" name="Part Name" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8A464C04-048E-4027-8FE4-84B7A0CCFB90}" name="Part Description" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{0A1EA1CD-80F4-4C12-B20C-29CA9490EA7E}" name="Make/Buy" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{2FDEB62B-541E-43FB-97A3-0D52A6614D79}" name="QTY" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{9C716AB5-E91D-40D3-9878-84958CAA2A5F}" name="Comment" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{75BD72FB-F48F-41FB-A80A-7054E601541D}" name="Vendor" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{66EC0042-03F1-4763-8805-62939084D4A8}" name="Vendor URL" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DD622D90-C72A-4909-B7FD-5968D435C8BF}" name="SubAssy" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C2050934-8985-41CF-95D2-2D6243A39AA3}" name="Category" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8BA061E5-6BC2-4F7E-BC6A-6F78DE33BE54}" name="Item" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{93317657-BCCE-43E1-915A-B28AAD0D7603}" name="Thumbnail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4948C01E-4B1D-41F6-8871-073490888FAD}" name="Part Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8A464C04-048E-4027-8FE4-84B7A0CCFB90}" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{0A1EA1CD-80F4-4C12-B20C-29CA9490EA7E}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{2FDEB62B-541E-43FB-97A3-0D52A6614D79}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9C716AB5-E91D-40D3-9878-84958CAA2A5F}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{75BD72FB-F48F-41FB-A80A-7054E601541D}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{66EC0042-03F1-4763-8805-62939084D4A8}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2965,10 +3085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,13 +3108,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -3003,16 +3123,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3023,10 +3143,10 @@
     </row>
     <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -3039,23 +3159,23 @@
         <v>9</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -3068,23 +3188,23 @@
         <v>9</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="12">
         <v>3</v>
@@ -3097,149 +3217,149 @@
         <v>9</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12">
         <v>4</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="12">
         <v>5</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="12">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="15">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="12">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
+      <c r="E8" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>65</v>
@@ -3248,84 +3368,88 @@
         <v>1</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
@@ -3336,23 +3460,21 @@
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="15">
         <v>1</v>
@@ -3363,26 +3485,26 @@
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="13"/>
@@ -3390,26 +3512,26 @@
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="13"/>
@@ -3417,26 +3539,26 @@
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="13"/>
@@ -3444,26 +3566,26 @@
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="13"/>
@@ -3471,26 +3593,26 @@
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="13"/>
@@ -3498,26 +3620,26 @@
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="13"/>
@@ -3525,23 +3647,23 @@
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="15">
         <v>1</v>
@@ -3552,26 +3674,26 @@
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="13"/>
@@ -3579,23 +3701,23 @@
     </row>
     <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="15">
         <v>2</v>
@@ -3606,23 +3728,23 @@
     </row>
     <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="15">
         <v>2</v>
@@ -3633,322 +3755,349 @@
     </row>
     <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="13"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>82</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="15">
         <v>1</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="15">
         <v>1</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="15">
         <v>1</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="15">
         <v>1</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="15">
-        <v>1</v>
-      </c>
-      <c r="I31" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="J31" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="15">
         <v>1</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="15">
         <v>1</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="16"/>
+      <c r="J33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>82</v>
+      <c r="B34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="12">
+        <v>32</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
+++ b/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\STDHT_MGN9_NOVA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D9D1F-0E62-4245-899A-9B609A9DC5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D17F1-37E1-47C6-94A1-E2D61E60B89A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
+++ b/files/STDHT_MGN9_NOVA/BOM/BOM_HextrudORT_NOVA_XCarriageMGN9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\STDHT_MGN9_NOVA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D17F1-37E1-47C6-94A1-E2D61E60B89A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08A0AE-2AE4-4668-AC74-6EE1743A1972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,33 +254,6 @@
   </si>
   <si>
     <t>HextrudORT_BODY_NOVA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOTE !</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-For Big Bearings (MR95 5X9X2.5) use:
-HextrudORT_ BackPlate_STDHT_MGN9_BB.stl
-For Bearing provided with BMG (MR85 5x8x2.5) use:
-HextrudORT_COVER.STL</t>
-    </r>
   </si>
   <si>
     <r>
@@ -504,6 +477,33 @@
       </rPr>
       <t xml:space="preserve">
 Use MR85 5x8x2.5 bearings from BMG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE !</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For Big Bearings (MR95 5X9X2.5) use:
+HextrudORT_ BackPlate_STDHT_MGN9_BB.stl
+For Bearing provided with BMG (MR85 5x8x2.5) use:
+HextrudORT_ BackPlate_STDHT_MGN9.stl</t>
     </r>
   </si>
 </sst>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>65</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>65</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>65</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>65</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>65</v>
@@ -3288,17 +3288,17 @@
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>14</v>
@@ -3307,46 +3307,46 @@
         <v>65</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>65</v>
@@ -3368,14 +3368,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>64</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>65</v>
@@ -3426,14 +3426,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>65</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>65</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>66</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>66</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>66</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>66</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>66</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>66</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>66</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>66</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>66</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>66</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>66</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>66</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>64</v>
@@ -3831,18 +3831,18 @@
         <v>1</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>64</v>
@@ -3864,18 +3864,18 @@
         <v>1</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>64</v>
@@ -3897,18 +3897,18 @@
         <v>1</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>64</v>
@@ -3930,18 +3930,18 @@
         <v>1</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>64</v>
@@ -3963,18 +3963,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>64</v>
@@ -3996,18 +3996,18 @@
         <v>2</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>64</v>
@@ -4030,15 +4030,15 @@
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>64</v>
@@ -4061,15 +4061,15 @@
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>64</v>
@@ -4091,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
